--- a/sample_I_2U.xlsx
+++ b/sample_I_2U.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="261">
   <si>
     <r>
       <t>信号调理组合</t>
@@ -1459,30 +1459,6 @@
     <t>Vout2_1</t>
   </si>
   <si>
-    <r>
-      <t>1.68</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.05M</t>
-    </r>
-  </si>
-  <si>
     <t>Vout3_1</t>
   </si>
   <si>
@@ -2637,31 +2613,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>测试值（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>电流参考端</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2980,6 +2931,60 @@
   </si>
   <si>
     <t>GND_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.68</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.5M</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.68</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.5M</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3502,6 +3507,33 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3514,38 +3546,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3556,32 +3561,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3604,10 +3591,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3616,17 +3624,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4021,7 +4026,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="34"/>
@@ -4162,8 +4167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4173,74 +4178,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="A1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>234</v>
+      <c r="I2" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="79"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="54"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="54"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -4253,7 +4258,7 @@
         <v>131</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -4262,20 +4267,20 @@
       <c r="A5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="8" t="s">
         <v>80</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>133</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -4284,9 +4289,9 @@
       <c r="A6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="8" t="s">
         <v>84</v>
       </c>
@@ -4297,7 +4302,7 @@
         <v>131</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -4306,20 +4311,20 @@
       <c r="A7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>133</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -4328,20 +4333,20 @@
       <c r="A8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>131</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -4350,20 +4355,20 @@
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>133</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -4372,13 +4377,13 @@
       <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="40" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -4391,7 +4396,7 @@
         <v>131</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -4400,20 +4405,20 @@
       <c r="A11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="8" t="s">
         <v>80</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>133</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -4422,9 +4427,9 @@
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="8" t="s">
         <v>84</v>
       </c>
@@ -4435,7 +4440,7 @@
         <v>131</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -4444,20 +4449,20 @@
       <c r="A13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>133</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -4466,20 +4471,20 @@
       <c r="A14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>131</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -4488,20 +4493,20 @@
       <c r="A15" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>133</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -4510,13 +4515,13 @@
       <c r="A16" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -4529,7 +4534,7 @@
         <v>131</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -4538,20 +4543,20 @@
       <c r="A17" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="8" t="s">
         <v>80</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>133</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -4560,9 +4565,9 @@
       <c r="A18" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="8" t="s">
         <v>84</v>
       </c>
@@ -4573,7 +4578,7 @@
         <v>131</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -4582,137 +4587,137 @@
       <c r="A19" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>133</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
+        <v>201</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>131</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
+        <v>202</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>133</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
+      <c r="A22" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
       <c r="E22" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
       <c r="H22" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="A24" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47" t="s">
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
+      <c r="A26" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -4730,6 +4735,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
@@ -4746,25 +4770,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H26:J26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4783,160 +4788,160 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+      <c r="A9" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="47" t="s">
+      <c r="G10" s="48"/>
+      <c r="H10" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="47"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
@@ -4954,10 +4959,10 @@
       <c r="E12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
@@ -4975,10 +4980,10 @@
       <c r="E13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
@@ -4996,10 +5001,10 @@
       <c r="E14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
@@ -5017,10 +5022,10 @@
       <c r="E15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
@@ -5038,10 +5043,10 @@
       <c r="E16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
@@ -5059,10 +5064,10 @@
       <c r="E17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
@@ -5080,10 +5085,10 @@
       <c r="E18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
     </row>
     <row r="19" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
@@ -5101,10 +5106,10 @@
       <c r="E19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
@@ -5122,10 +5127,10 @@
       <c r="E20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
     </row>
     <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
@@ -5143,10 +5148,10 @@
       <c r="E21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
@@ -5164,10 +5169,10 @@
       <c r="E22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
     </row>
     <row r="23" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
@@ -5185,35 +5190,58 @@
       <c r="E23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
       <c r="D24" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
       <c r="G24" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A11"/>
@@ -5230,34 +5258,11 @@
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5269,7 +5274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
@@ -5280,63 +5285,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="7" t="s">
         <v>105</v>
       </c>
@@ -5353,11 +5358,11 @@
       <c r="A5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="7" t="s">
         <v>105</v>
       </c>
@@ -5374,11 +5379,11 @@
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="7" t="s">
         <v>105</v>
       </c>
@@ -5395,11 +5400,11 @@
       <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="7" t="s">
         <v>105</v>
       </c>
@@ -5416,11 +5421,11 @@
       <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="7" t="s">
         <v>105</v>
       </c>
@@ -5437,11 +5442,11 @@
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="7" t="s">
         <v>105</v>
       </c>
@@ -5458,11 +5463,11 @@
       <c r="A10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="7" t="s">
         <v>119</v>
       </c>
@@ -5479,11 +5484,11 @@
       <c r="A11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="7" t="s">
         <v>119</v>
       </c>
@@ -5500,11 +5505,11 @@
       <c r="A12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="7" t="s">
         <v>119</v>
       </c>
@@ -5521,11 +5526,11 @@
       <c r="A13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="7" t="s">
         <v>119</v>
       </c>
@@ -5542,11 +5547,11 @@
       <c r="A14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="7" t="s">
         <v>119</v>
       </c>
@@ -5563,11 +5568,11 @@
       <c r="A15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="7" t="s">
         <v>119</v>
       </c>
@@ -5584,29 +5589,26 @@
       <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
       <c r="G16" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -5617,11 +5619,14 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5633,7 +5638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -5644,63 +5649,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="38" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="38" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="54"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="7" t="s">
         <v>51</v>
       </c>
@@ -5717,11 +5722,11 @@
       <c r="A5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="7" t="s">
         <v>51</v>
       </c>
@@ -5738,11 +5743,11 @@
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="7" t="s">
         <v>51</v>
       </c>
@@ -5759,11 +5764,11 @@
       <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="7" t="s">
         <v>51</v>
       </c>
@@ -5780,11 +5785,11 @@
       <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
@@ -5801,11 +5806,11 @@
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="7" t="s">
         <v>51</v>
       </c>
@@ -5822,11 +5827,11 @@
       <c r="A10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
@@ -5843,11 +5848,11 @@
       <c r="A11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="7" t="s">
         <v>51</v>
       </c>
@@ -5864,11 +5869,11 @@
       <c r="A12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="7" t="s">
         <v>51</v>
       </c>
@@ -5885,11 +5890,11 @@
       <c r="A13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="7" t="s">
         <v>51</v>
       </c>
@@ -5906,11 +5911,11 @@
       <c r="A14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="7" t="s">
         <v>51</v>
       </c>
@@ -5927,11 +5932,11 @@
       <c r="A15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="7" t="s">
         <v>51</v>
       </c>
@@ -5948,11 +5953,11 @@
       <c r="A16" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="7" t="s">
         <v>51</v>
       </c>
@@ -5969,11 +5974,11 @@
       <c r="A17" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="7" t="s">
         <v>60</v>
       </c>
@@ -5990,11 +5995,11 @@
       <c r="A18" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="7" t="s">
         <v>60</v>
       </c>
@@ -6011,11 +6016,11 @@
       <c r="A19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="7" t="s">
         <v>60</v>
       </c>
@@ -6032,29 +6037,28 @@
       <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
       <c r="D20" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="G20" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -6067,13 +6071,14 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6085,75 +6090,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="38" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>17</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="51" t="s">
         <v>135</v>
       </c>
       <c r="C4" s="55"/>
-      <c r="D4" s="45"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>107</v>
@@ -6165,11 +6170,11 @@
       <c r="A5" s="7">
         <v>18</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="51" t="s">
         <v>135</v>
       </c>
       <c r="C5" s="55"/>
-      <c r="D5" s="45"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="7" t="s">
         <v>60</v>
       </c>
@@ -6186,11 +6191,11 @@
       <c r="A6" s="7">
         <v>19</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="51" t="s">
         <v>135</v>
       </c>
       <c r="C6" s="55"/>
-      <c r="D6" s="45"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="7" t="s">
         <v>60</v>
       </c>
@@ -6207,11 +6212,11 @@
       <c r="A7" s="7">
         <v>20</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="51" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="55"/>
-      <c r="D7" s="45"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="7" t="s">
         <v>60</v>
       </c>
@@ -6228,11 +6233,11 @@
       <c r="A8" s="7">
         <v>21</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="51" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="55"/>
-      <c r="D8" s="45"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="7" t="s">
         <v>60</v>
       </c>
@@ -6249,11 +6254,11 @@
       <c r="A9" s="7">
         <v>22</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="51" t="s">
         <v>135</v>
       </c>
       <c r="C9" s="55"/>
-      <c r="D9" s="45"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="7" t="s">
         <v>60</v>
       </c>
@@ -6270,11 +6275,11 @@
       <c r="A10" s="7">
         <v>23</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="51" t="s">
         <v>135</v>
       </c>
       <c r="C10" s="55"/>
-      <c r="D10" s="45"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="7" t="s">
         <v>60</v>
       </c>
@@ -6291,11 +6296,11 @@
       <c r="A11" s="7">
         <v>24</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="51" t="s">
         <v>135</v>
       </c>
       <c r="C11" s="55"/>
-      <c r="D11" s="45"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="7" t="s">
         <v>60</v>
       </c>
@@ -6312,11 +6317,11 @@
       <c r="A12" s="7">
         <v>25</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="51" t="s">
         <v>140</v>
       </c>
       <c r="C12" s="55"/>
-      <c r="D12" s="45"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="7" t="s">
         <v>68</v>
       </c>
@@ -6333,11 +6338,11 @@
       <c r="A13" s="7">
         <v>26</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="51" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="55"/>
-      <c r="D13" s="45"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="7" t="s">
         <v>68</v>
       </c>
@@ -6354,11 +6359,11 @@
       <c r="A14" s="7">
         <v>27</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="51" t="s">
         <v>140</v>
       </c>
       <c r="C14" s="55"/>
-      <c r="D14" s="45"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="7" t="s">
         <v>68</v>
       </c>
@@ -6375,11 +6380,11 @@
       <c r="A15" s="7">
         <v>28</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="51" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="55"/>
-      <c r="D15" s="45"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="7" t="s">
         <v>68</v>
       </c>
@@ -6396,11 +6401,11 @@
       <c r="A16" s="7">
         <v>29</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="51" t="s">
         <v>140</v>
       </c>
       <c r="C16" s="55"/>
-      <c r="D16" s="45"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="7" t="s">
         <v>68</v>
       </c>
@@ -6417,11 +6422,11 @@
       <c r="A17" s="7">
         <v>30</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="51" t="s">
         <v>140</v>
       </c>
       <c r="C17" s="55"/>
-      <c r="D17" s="45"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="7" t="s">
         <v>68</v>
       </c>
@@ -6438,11 +6443,11 @@
       <c r="A18" s="7">
         <v>31</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="51" t="s">
         <v>140</v>
       </c>
       <c r="C18" s="55"/>
-      <c r="D18" s="45"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="7" t="s">
         <v>68</v>
       </c>
@@ -6459,11 +6464,11 @@
       <c r="A19" s="7">
         <v>32</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="51" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="55"/>
-      <c r="D19" s="45"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="7" t="s">
         <v>68</v>
       </c>
@@ -6480,11 +6485,11 @@
       <c r="A20" s="7">
         <v>33</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="51" t="s">
         <v>140</v>
       </c>
       <c r="C20" s="55"/>
-      <c r="D20" s="45"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="7" t="s">
         <v>68</v>
       </c>
@@ -6501,30 +6506,28 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
       <c r="D21" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
       <c r="G21" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
@@ -6537,13 +6540,15 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6555,8 +6560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6566,63 +6571,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="38" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>34</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="7" t="s">
         <v>143</v>
       </c>
@@ -6630,7 +6635,7 @@
         <v>144</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -6639,19 +6644,19 @@
       <c r="A5" s="7">
         <v>35</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -6660,11 +6665,11 @@
       <c r="A6" s="7">
         <v>36</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="7" t="s">
         <v>143</v>
       </c>
@@ -6672,7 +6677,7 @@
         <v>131</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -6681,16 +6686,16 @@
       <c r="A7" s="7">
         <v>37</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>107</v>
@@ -6702,16 +6707,16 @@
       <c r="A8" s="7">
         <v>38</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="51" t="s">
         <v>142</v>
       </c>
       <c r="C8" s="55"/>
-      <c r="D8" s="45"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>107</v>
@@ -6723,16 +6728,16 @@
       <c r="A9" s="7">
         <v>39</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="51" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="55"/>
-      <c r="D9" s="45"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>107</v>
@@ -6744,11 +6749,11 @@
       <c r="A10" s="7">
         <v>40</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="51" t="s">
         <v>142</v>
       </c>
       <c r="C10" s="55"/>
-      <c r="D10" s="45"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="7" t="s">
         <v>143</v>
       </c>
@@ -6765,19 +6770,19 @@
       <c r="A11" s="7">
         <v>41</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>151</v>
+      <c r="B11" s="51" t="s">
+        <v>150</v>
       </c>
       <c r="C11" s="55"/>
-      <c r="D11" s="45"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="7" t="s">
         <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -6786,11 +6791,11 @@
       <c r="A12" s="7">
         <v>42</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>151</v>
+      <c r="B12" s="51" t="s">
+        <v>150</v>
       </c>
       <c r="C12" s="55"/>
-      <c r="D12" s="45"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="7" t="s">
         <v>144</v>
       </c>
@@ -6798,7 +6803,7 @@
         <v>131</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -6807,16 +6812,16 @@
       <c r="A13" s="7">
         <v>43</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>151</v>
+      <c r="B13" s="51" t="s">
+        <v>150</v>
       </c>
       <c r="C13" s="55"/>
-      <c r="D13" s="45"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="7" t="s">
         <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>107</v>
@@ -6828,16 +6833,16 @@
       <c r="A14" s="7">
         <v>44</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>151</v>
+      <c r="B14" s="51" t="s">
+        <v>150</v>
       </c>
       <c r="C14" s="55"/>
-      <c r="D14" s="45"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="7" t="s">
         <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>107</v>
@@ -6849,16 +6854,16 @@
       <c r="A15" s="7">
         <v>45</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>151</v>
+      <c r="B15" s="51" t="s">
+        <v>150</v>
       </c>
       <c r="C15" s="55"/>
-      <c r="D15" s="45"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="7" t="s">
         <v>144</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>107</v>
@@ -6870,11 +6875,11 @@
       <c r="A16" s="7">
         <v>46</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>151</v>
+      <c r="B16" s="51" t="s">
+        <v>150</v>
       </c>
       <c r="C16" s="55"/>
-      <c r="D16" s="45"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="7" t="s">
         <v>144</v>
       </c>
@@ -6891,19 +6896,19 @@
       <c r="A17" s="7">
         <v>47</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>152</v>
+      <c r="B17" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="C17" s="55"/>
-      <c r="D17" s="45"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>131</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -6912,16 +6917,16 @@
       <c r="A18" s="7">
         <v>48</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>152</v>
+      <c r="B18" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="C18" s="55"/>
-      <c r="D18" s="45"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>107</v>
@@ -6933,16 +6938,16 @@
       <c r="A19" s="7">
         <v>49</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>152</v>
+      <c r="B19" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="C19" s="55"/>
-      <c r="D19" s="45"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>107</v>
@@ -6954,16 +6959,16 @@
       <c r="A20" s="7">
         <v>50</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>152</v>
+      <c r="B20" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="C20" s="55"/>
-      <c r="D20" s="45"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>107</v>
@@ -6975,21 +6980,34 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
       <c r="D21" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
       <c r="G21" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A1:I1"/>
@@ -7005,19 +7023,6 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7029,8 +7034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7041,68 +7046,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>152</v>
+      <c r="B4" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="C4" s="55"/>
-      <c r="D4" s="45"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>107</v>
@@ -7114,19 +7119,19 @@
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>153</v>
+      <c r="B5" s="51" t="s">
+        <v>152</v>
       </c>
       <c r="C5" s="55"/>
-      <c r="D5" s="45"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -7135,19 +7140,19 @@
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>153</v>
+      <c r="B6" s="51" t="s">
+        <v>152</v>
       </c>
       <c r="C6" s="55"/>
-      <c r="D6" s="45"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -7156,19 +7161,19 @@
       <c r="A7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>153</v>
+      <c r="B7" s="51" t="s">
+        <v>152</v>
       </c>
       <c r="C7" s="55"/>
-      <c r="D7" s="45"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>133</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -7177,19 +7182,19 @@
       <c r="A8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>154</v>
+      <c r="B8" s="51" t="s">
+        <v>153</v>
       </c>
       <c r="C8" s="55"/>
-      <c r="D8" s="45"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -7198,19 +7203,19 @@
       <c r="A9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>154</v>
+      <c r="B9" s="51" t="s">
+        <v>153</v>
       </c>
       <c r="C9" s="55"/>
-      <c r="D9" s="45"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>133</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -7219,19 +7224,19 @@
       <c r="A10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>155</v>
+      <c r="B10" s="51" t="s">
+        <v>154</v>
       </c>
       <c r="C10" s="55"/>
-      <c r="D10" s="45"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>133</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -7240,77 +7245,77 @@
       <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
       <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="A14" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>156</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>157</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="B17" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="8" t="s">
         <v>52</v>
       </c>
@@ -7318,7 +7323,7 @@
         <v>57</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -7327,11 +7332,11 @@
       <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="B18" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="8" t="s">
         <v>61</v>
       </c>
@@ -7339,7 +7344,7 @@
         <v>65</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -7348,11 +7353,11 @@
       <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="B19" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="8" t="s">
         <v>69</v>
       </c>
@@ -7360,7 +7365,7 @@
         <v>73</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -7369,21 +7374,37 @@
       <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
       <c r="D20" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="G20" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A3"/>
@@ -7399,22 +7420,6 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7436,80 +7441,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="A1" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>168</v>
-      </c>
       <c r="F2" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G2" s="53" t="s">
         <v>125</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>169</v>
+        <v>249</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>168</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
-      <c r="I3" s="47"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>106</v>
@@ -7518,7 +7523,7 @@
         <v>111</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -7527,11 +7532,11 @@
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>109</v>
@@ -7540,7 +7545,7 @@
         <v>111</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -7549,11 +7554,11 @@
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>113</v>
@@ -7562,7 +7567,7 @@
         <v>117</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -7571,11 +7576,11 @@
       <c r="A7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>115</v>
@@ -7584,7 +7589,7 @@
         <v>117</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -7593,17 +7598,17 @@
       <c r="A8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="40" t="s">
         <v>119</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>106</v>
@@ -7612,7 +7617,7 @@
         <v>111</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -7621,11 +7626,11 @@
       <c r="A9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>109</v>
@@ -7634,7 +7639,7 @@
         <v>111</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -7643,11 +7648,11 @@
       <c r="A10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>113</v>
@@ -7656,7 +7661,7 @@
         <v>117</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -7665,11 +7670,11 @@
       <c r="A11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>115</v>
@@ -7678,7 +7683,7 @@
         <v>117</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -7687,17 +7692,17 @@
       <c r="A12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="43" t="s">
+      <c r="B12" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="40" t="s">
         <v>119</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>106</v>
@@ -7706,7 +7711,7 @@
         <v>111</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -7715,11 +7720,11 @@
       <c r="A13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>109</v>
@@ -7728,7 +7733,7 @@
         <v>111</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -7737,11 +7742,11 @@
       <c r="A14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>113</v>
@@ -7750,7 +7755,7 @@
         <v>117</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -7759,11 +7764,11 @@
       <c r="A15" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>115</v>
@@ -7772,7 +7777,7 @@
         <v>117</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -7781,94 +7786,94 @@
       <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
       <c r="G16" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
+      <c r="A19" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="D20" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="E20" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="F20" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>169</v>
-      </c>
       <c r="J20" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="9" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>106</v>
@@ -7877,7 +7882,7 @@
         <v>111</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -7886,11 +7891,11 @@
       <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>109</v>
@@ -7899,7 +7904,7 @@
         <v>111</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -7908,11 +7913,11 @@
       <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>113</v>
@@ -7921,7 +7926,7 @@
         <v>117</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -7930,11 +7935,11 @@
       <c r="A25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>115</v>
@@ -7943,7 +7948,7 @@
         <v>117</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -7952,84 +7957,84 @@
       <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
       <c r="D26" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
       <c r="G26" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
+      <c r="A29" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="J30" s="62" t="s">
-        <v>188</v>
+      <c r="G30" s="61"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="57" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="63"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10">
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="61"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="71"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
@@ -8037,21 +8042,55 @@
       <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
       <c r="D33" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
       <c r="G33" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:F16"/>
@@ -8068,40 +8107,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8113,8 +8118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8128,97 +8133,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="A1" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="78" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="J2" s="47" t="s">
+      <c r="K2" s="40" t="s">
         <v>191</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>192</v>
       </c>
       <c r="L2" s="53" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="79"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="43"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="8">
         <v>4</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="40" t="s">
         <v>131</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -8229,16 +8234,16 @@
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="8">
         <v>8</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -8249,16 +8254,16 @@
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="8">
         <v>12</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -8269,16 +8274,16 @@
       <c r="A7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="8">
         <v>16</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -8289,16 +8294,16 @@
       <c r="A8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="8">
         <v>20</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -8309,46 +8314,46 @@
       <c r="A9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="75"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="76"/>
     </row>
     <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="8">
         <v>4</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="43" t="s">
+      <c r="F10" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>133</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="11"/>
@@ -8359,16 +8364,16 @@
       <c r="A11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="8">
         <v>8</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="11"/>
@@ -8379,16 +8384,16 @@
       <c r="A12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="8">
         <v>12</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="11"/>
@@ -8399,16 +8404,16 @@
       <c r="A13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="8">
         <v>16</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11"/>
@@ -8419,16 +8424,16 @@
       <c r="A14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="8">
         <v>20</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="11"/>
@@ -8439,46 +8444,46 @@
       <c r="A15" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="75"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="78"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="76"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="40" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="8">
         <v>4</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="40" t="s">
         <v>131</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -8489,16 +8494,16 @@
       <c r="A17" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="8">
         <v>8</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -8509,16 +8514,16 @@
       <c r="A18" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="8">
         <v>12</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -8529,16 +8534,16 @@
       <c r="A19" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="8">
         <v>16</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -8547,18 +8552,18 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
+        <v>201</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="8">
         <v>20</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -8567,48 +8572,48 @@
     </row>
     <row r="21" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="75"/>
+        <v>202</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="78"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="40" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="8">
         <v>4</v>
       </c>
-      <c r="F22" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="43" t="s">
+      <c r="F22" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>133</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -8617,18 +8622,18 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+        <v>215</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="8">
         <v>8</v>
       </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -8637,18 +8642,18 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+        <v>216</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="8">
         <v>12</v>
       </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -8657,18 +8662,18 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+        <v>217</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="8">
         <v>16</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -8677,18 +8682,18 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+        <v>218</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="8">
         <v>20</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -8697,48 +8702,48 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="75"/>
+        <v>219</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="78"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="76"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E28" s="8">
         <v>4</v>
       </c>
-      <c r="F28" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="G28" s="43" t="s">
+      <c r="F28" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="40" t="s">
         <v>131</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="11"/>
@@ -8747,18 +8752,18 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+        <v>221</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="8">
         <v>8</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="11"/>
@@ -8767,18 +8772,18 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+        <v>222</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="8">
         <v>12</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="11"/>
@@ -8787,18 +8792,18 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+        <v>223</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="8">
         <v>16</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="11"/>
@@ -8807,18 +8812,18 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+        <v>224</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="8">
         <v>20</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="11"/>
@@ -8827,48 +8832,48 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" s="73"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="75"/>
+        <v>225</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="78"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="76"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="8">
         <v>4</v>
       </c>
-      <c r="F34" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="G34" s="43" t="s">
+      <c r="F34" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="40" t="s">
         <v>133</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -8877,18 +8882,18 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+        <v>227</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="8">
         <v>8</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -8897,18 +8902,18 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+        <v>228</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="8">
         <v>12</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
       <c r="H36" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -8917,18 +8922,18 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+        <v>229</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="8">
         <v>16</v>
       </c>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
       <c r="H37" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -8937,18 +8942,18 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+        <v>230</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="8">
         <v>20</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
       <c r="H38" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -8957,23 +8962,23 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="75"/>
+        <v>231</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="78"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="76"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -8981,46 +8986,52 @@
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
       <c r="G40" t="s">
-        <v>233</v>
-      </c>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
+        <v>232</v>
+      </c>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
       <c r="J40" t="s">
         <v>42</v>
       </c>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="H9:J9"/>
@@ -9037,36 +9048,30 @@
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="G4:G8"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
